--- a/Bao Cao/Testcase/WebTuyenDungTest cases.xlsx
+++ b/Bao Cao/Testcase/WebTuyenDungTest cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyipd\OneDrive\Documents\LAP TRINH HUONG DOI TUONG\KT_LTHDT_Recruitment\Bao Cao\Testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8D7679-B537-4443-8C0B-A13BAB6C87DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3159C1-99BB-4B7F-81E0-8B03F68B44B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KiemDuyet" sheetId="20" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="237">
   <si>
     <t>Thiết kế</t>
   </si>
@@ -372,9 +372,6 @@
     <t>TH hồ sơ đã hoàn thành</t>
   </si>
   <si>
-    <t>Hiển thị thông báo và chuyển trang hồ sơ của tôi</t>
-  </si>
-  <si>
     <t>TH hồ sơ chưa hoàn thành</t>
   </si>
   <si>
@@ -432,15 +429,9 @@
     <t>Thông báo lưu thành công</t>
   </si>
   <si>
-    <t>Chưa Upload CV file pdf</t>
-  </si>
-  <si>
     <t>Hiển thị thông báo và yêu cầu upload</t>
   </si>
   <si>
-    <t>Upload  CV file pdf</t>
-  </si>
-  <si>
     <t>Button Lưu</t>
   </si>
   <si>
@@ -459,12 +450,6 @@
     <t>Chưa nhập thông tin</t>
   </si>
   <si>
-    <t>Trưng bày</t>
-  </si>
-  <si>
-    <t>Tự mô tả</t>
-  </si>
-  <si>
     <t>Nền giáo dục</t>
   </si>
   <si>
@@ -673,13 +658,90 @@
   </si>
   <si>
     <t>Admin đăng nhập</t>
+  </si>
+  <si>
+    <t>(Nguyen Van Danh, Nam, Đại Học, Tốt nghiệp, 
+0961144072)</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo "Không được để trống" và yêu cầu nhập</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo "Tên filed + Không được để trống" và yêu cầu nhập</t>
+  </si>
+  <si>
+    <t>(Sharework, Lập trình asp, 2022/1 -2023-1)</t>
+  </si>
+  <si>
+    <t>Thông báo lưu thành công và hiện thông tin sau khi lưu</t>
+  </si>
+  <si>
+    <t>(Web cinema, coding,  2022/1 -2023-1)</t>
+  </si>
+  <si>
+    <t>(Ptit, Đại học, Công nghệ phần mềm, 2022-2023)</t>
+  </si>
+  <si>
+    <t>Upload  CV file</t>
+  </si>
+  <si>
+    <t>Chưa Upload CV file</t>
+  </si>
+  <si>
+    <t>Upload file cv.pdf</t>
+  </si>
+  <si>
+    <t>TH Upload file cv đúng định dạng file .pdf</t>
+  </si>
+  <si>
+    <t>TH Upload file cv không đúng định dạng file .pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upload file cv thành công </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Tải lên thất bại,Định dạng file không đúng</t>
+  </si>
+  <si>
+    <t>Nhập sdt không đúng định dạng</t>
+  </si>
+  <si>
+    <t>Vui lòng nhập số điện thoại đúng độ dài!!!</t>
+  </si>
+  <si>
+    <t>(danh290310@gmail.com, 123456)</t>
+  </si>
+  <si>
+    <t>danh290310@gmail.com</t>
+  </si>
+  <si>
+    <t>(danh29031@gmail.com, nguyen danh, 123456)</t>
+  </si>
+  <si>
+    <t>File .docx, FILE .jpg</t>
+  </si>
+  <si>
+    <t>File .pdf</t>
+  </si>
+  <si>
+    <t>`096114407222</t>
+  </si>
+  <si>
+    <t>Thời gian bắt đầu không thể lớn hơn thời gian kết thúc!!!</t>
+  </si>
+  <si>
+    <t>Nhập khoảng thời gian không đúng</t>
+  </si>
+  <si>
+    <t>Hồ sơ chưa hoàn thiện! Vui lòng hoàn thiện hồ sơ trước</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -720,6 +782,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -766,14 +834,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -852,8 +921,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -1265,18 +1338,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4905D9-9A2F-4DE5-8AFC-9247859EFDF4}">
   <dimension ref="B2:F33"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" customWidth="1"/>
-    <col min="5" max="5" width="35.44140625" customWidth="1"/>
+    <col min="2" max="2" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.54296875" customWidth="1"/>
+    <col min="4" max="4" width="30.6328125" customWidth="1"/>
+    <col min="5" max="5" width="35.453125" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="16.5" customHeight="1">
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1293,18 +1368,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="16.5" customHeight="1">
       <c r="B3" s="8">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="16.5" customHeight="1">
       <c r="B4" s="9">
         <v>1.1000000000000001</v>
       </c>
@@ -1313,11 +1388,11 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="33" customHeight="1">
       <c r="B5" s="9">
         <v>1.2</v>
       </c>
@@ -1325,14 +1400,14 @@
         <v>8</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="16.5" customHeight="1">
       <c r="B6" s="9">
         <v>1.3</v>
       </c>
@@ -1340,14 +1415,14 @@
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="16.5" customHeight="1">
       <c r="B7" s="9">
         <v>1.4</v>
       </c>
@@ -1362,104 +1437,104 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="16.5" customHeight="1">
       <c r="B8" s="8">
         <v>2</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="16.5" customHeight="1">
       <c r="B9" s="10">
         <v>2.1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="16.5" customHeight="1">
       <c r="B10" s="10">
         <v>2.2000000000000002</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" ht="16.5" customHeight="1">
       <c r="B11" s="10">
         <v>2.2999999999999998</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" ht="16.5" customHeight="1">
       <c r="B12" s="10">
         <v>2.4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F12" s="11"/>
     </row>
-    <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" ht="16.5" customHeight="1">
       <c r="B13" s="10">
         <v>2.5</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" ht="33" customHeight="1">
       <c r="B14" s="10">
         <v>2.6</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" ht="16.5" customHeight="1">
       <c r="B15" s="10">
         <v>2.8</v>
       </c>
@@ -1474,44 +1549,44 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" ht="16.5" customHeight="1">
       <c r="B16" s="8">
         <v>3</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="16.5" customHeight="1">
       <c r="B17" s="18">
         <v>3.1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="17.25" customHeight="1">
       <c r="B18" s="18">
         <v>3.2</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="16.5" customHeight="1">
       <c r="B19" s="10">
         <v>3.3</v>
       </c>
@@ -1526,76 +1601,76 @@
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="16.5" customHeight="1">
       <c r="B20" s="8">
         <v>4</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="33.75" customHeight="1">
       <c r="B21" s="18">
         <v>4.0999999999999996</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" ht="33" customHeight="1">
       <c r="B22" s="18">
         <v>4.2</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" ht="33.75" customHeight="1">
       <c r="B23" s="18">
         <v>4.3</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="19" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" ht="33" customHeight="1">
       <c r="B24" s="18">
         <v>4.4000000000000004</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" ht="16.5" customHeight="1">
       <c r="B25" s="10">
         <v>4.5</v>
       </c>
@@ -1610,102 +1685,102 @@
       </c>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" ht="16.5" customHeight="1">
       <c r="B26" s="8">
         <v>5</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" ht="33.75" customHeight="1">
       <c r="B27" s="18">
         <v>5.0999999999999996</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" ht="33" customHeight="1">
       <c r="B28" s="18">
         <v>5.2</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" ht="33.75" customHeight="1">
       <c r="B29" s="18">
         <v>5.3</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="19" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" ht="33" customHeight="1">
       <c r="B30" s="18">
         <v>5.4</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" ht="33.75" customHeight="1">
       <c r="B31" s="18">
         <v>5.5</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" ht="33" customHeight="1">
       <c r="B32" s="18">
         <v>5.6</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D32" s="25"/>
       <c r="E32" s="24" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" ht="16.5" customHeight="1">
       <c r="B33" s="10">
         <v>5.7</v>
       </c>
@@ -1731,19 +1806,19 @@
   <dimension ref="B2:F56"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E16" sqref="A16:E19"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="61.109375" customWidth="1"/>
-    <col min="4" max="4" width="100.33203125" customWidth="1"/>
-    <col min="5" max="5" width="119.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="61.08984375" customWidth="1"/>
+    <col min="4" max="4" width="100.36328125" customWidth="1"/>
+    <col min="5" max="5" width="119.6328125" customWidth="1"/>
+    <col min="6" max="6" width="25.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="13">
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1760,7 +1835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="13">
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -1771,7 +1846,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6">
       <c r="B4" s="9">
         <v>1.1000000000000001</v>
       </c>
@@ -1786,7 +1861,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6">
       <c r="B5" s="9">
         <v>1.2</v>
       </c>
@@ -1801,7 +1876,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6">
       <c r="B6" s="9">
         <v>1.3</v>
       </c>
@@ -1816,7 +1891,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6">
       <c r="B7" s="9">
         <v>1.4</v>
       </c>
@@ -1831,7 +1906,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6">
       <c r="B8" s="9">
         <v>1.5</v>
       </c>
@@ -1846,7 +1921,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="13">
       <c r="B9" s="9">
         <v>1.6</v>
       </c>
@@ -1861,7 +1936,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6">
       <c r="B10" s="9">
         <v>1.7</v>
       </c>
@@ -1876,7 +1951,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6">
       <c r="B11" s="9">
         <v>1.8</v>
       </c>
@@ -1889,7 +1964,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6">
       <c r="B12" s="9">
         <v>1.9</v>
       </c>
@@ -1902,7 +1977,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6">
       <c r="B13" s="13" t="s">
         <v>40</v>
       </c>
@@ -1915,7 +1990,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6">
       <c r="B14" s="9">
         <v>1.1100000000000001</v>
       </c>
@@ -1928,7 +2003,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6">
       <c r="B15" s="9">
         <v>1.1200000000000001</v>
       </c>
@@ -1941,7 +2016,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6">
       <c r="B16" s="9">
         <v>1.1299999999999999</v>
       </c>
@@ -1954,7 +2029,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6">
       <c r="B17" s="9">
         <v>1.1399999999999999</v>
       </c>
@@ -1969,7 +2044,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="13">
       <c r="B18" s="8">
         <v>2</v>
       </c>
@@ -1980,7 +2055,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6">
       <c r="B19" s="10">
         <v>2.1</v>
       </c>
@@ -1995,7 +2070,7 @@
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6">
       <c r="B20" s="10">
         <v>2.2000000000000002</v>
       </c>
@@ -2010,7 +2085,7 @@
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6">
       <c r="B21" s="10">
         <v>2.2999999999999998</v>
       </c>
@@ -2027,7 +2102,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6">
       <c r="B22" s="10">
         <v>2.4</v>
       </c>
@@ -2042,7 +2117,7 @@
       </c>
       <c r="F22" s="11"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6">
       <c r="B23" s="10">
         <v>2.5</v>
       </c>
@@ -2057,7 +2132,7 @@
       </c>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6">
       <c r="B24" s="10">
         <v>2.6</v>
       </c>
@@ -2072,7 +2147,7 @@
       </c>
       <c r="F24" s="11"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6">
       <c r="B25" s="10">
         <v>2.7</v>
       </c>
@@ -2087,7 +2162,7 @@
       </c>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6">
       <c r="B26" s="10">
         <v>2.8</v>
       </c>
@@ -2102,7 +2177,7 @@
       </c>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6">
       <c r="B27" s="10">
         <v>2.9</v>
       </c>
@@ -2117,7 +2192,7 @@
       </c>
       <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6">
       <c r="B28" s="14" t="s">
         <v>67</v>
       </c>
@@ -2132,7 +2207,7 @@
       </c>
       <c r="F28" s="11"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6">
       <c r="B29" s="10">
         <v>2.11</v>
       </c>
@@ -2145,7 +2220,7 @@
       </c>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6">
       <c r="B30" s="10">
         <v>2.12</v>
       </c>
@@ -2160,7 +2235,7 @@
       </c>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6">
       <c r="B31" s="10">
         <v>2.13</v>
       </c>
@@ -2175,7 +2250,7 @@
       </c>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6">
       <c r="B32" s="10">
         <v>2.14</v>
       </c>
@@ -2190,7 +2265,7 @@
       </c>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6">
       <c r="B33" s="10">
         <v>2.15</v>
       </c>
@@ -2205,7 +2280,7 @@
       </c>
       <c r="F33" s="11"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6">
       <c r="B34" s="10">
         <v>2.16</v>
       </c>
@@ -2220,7 +2295,7 @@
       </c>
       <c r="F34" s="11"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6">
       <c r="B35" s="10">
         <v>2.2999999999999998</v>
       </c>
@@ -2235,7 +2310,7 @@
       </c>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" ht="13">
       <c r="B36" s="8">
         <v>3</v>
       </c>
@@ -2246,7 +2321,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6">
       <c r="B37" s="3">
         <v>3.1</v>
       </c>
@@ -2259,7 +2334,7 @@
       </c>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6">
       <c r="B38" s="3">
         <v>3.2</v>
       </c>
@@ -2272,7 +2347,7 @@
       </c>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" ht="13">
       <c r="B39" s="8">
         <v>4</v>
       </c>
@@ -2283,7 +2358,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6">
       <c r="B40" s="3">
         <v>4.0999999999999996</v>
       </c>
@@ -2296,7 +2371,7 @@
       </c>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" ht="13">
       <c r="B41" s="8">
         <v>5</v>
       </c>
@@ -2307,7 +2382,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6">
       <c r="B42" s="3">
         <v>5.0999999999999996</v>
       </c>
@@ -2322,7 +2397,7 @@
       </c>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6">
       <c r="B43" s="3">
         <v>5.2</v>
       </c>
@@ -2337,7 +2412,7 @@
       </c>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6">
       <c r="B44" s="3">
         <v>5.3</v>
       </c>
@@ -2350,7 +2425,7 @@
       </c>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6">
       <c r="B45" s="3">
         <v>5.4</v>
       </c>
@@ -2363,7 +2438,7 @@
       </c>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6">
       <c r="B46" s="3">
         <v>5.5</v>
       </c>
@@ -2376,7 +2451,7 @@
       </c>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6">
       <c r="B47" s="3">
         <v>5.6</v>
       </c>
@@ -2391,7 +2466,7 @@
       </c>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6">
       <c r="B48" s="3">
         <v>5.7</v>
       </c>
@@ -2406,7 +2481,7 @@
       </c>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6">
       <c r="B49" s="3">
         <v>5.8</v>
       </c>
@@ -2421,7 +2496,7 @@
       </c>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6">
       <c r="B50" s="3">
         <v>5.9</v>
       </c>
@@ -2434,7 +2509,7 @@
       </c>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6">
       <c r="B51" s="15" t="s">
         <v>103</v>
       </c>
@@ -2447,7 +2522,7 @@
       </c>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6">
       <c r="B52" s="3">
         <v>5.1100000000000003</v>
       </c>
@@ -2460,7 +2535,7 @@
       </c>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6">
       <c r="B53" s="3">
         <v>5.12</v>
       </c>
@@ -2473,7 +2548,7 @@
       </c>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6">
       <c r="B54" s="3">
         <v>5.13</v>
       </c>
@@ -2486,7 +2561,7 @@
       </c>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6">
       <c r="B55" s="3">
         <v>5.14</v>
       </c>
@@ -2499,7 +2574,7 @@
       </c>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -2513,20 +2588,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2696C5-C04F-489F-9F49-96BB4D990DAD}">
-  <dimension ref="B2:F88"/>
+  <dimension ref="B2:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="55.77734375" customWidth="1"/>
+    <col min="4" max="4" width="50.90625" customWidth="1"/>
     <col min="5" max="5" width="85" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="16.5" customHeight="1">
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -2543,18 +2618,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="16.5" customHeight="1">
       <c r="B3" s="8">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="16.5" customHeight="1">
       <c r="B4" s="9">
         <v>1.1000000000000001</v>
       </c>
@@ -2569,7 +2644,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="16.5" customHeight="1">
       <c r="B5" s="9">
         <v>1.2</v>
       </c>
@@ -2584,7 +2659,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="16.5" customHeight="1">
       <c r="B6" s="9">
         <v>1.3</v>
       </c>
@@ -2599,7 +2674,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="16.5" customHeight="1">
       <c r="B7" s="9">
         <v>1.4</v>
       </c>
@@ -2614,7 +2689,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="16.5" customHeight="1">
       <c r="B8" s="9">
         <v>1.5</v>
       </c>
@@ -2629,7 +2704,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="16.5" customHeight="1">
       <c r="B9" s="9">
         <v>1.6</v>
       </c>
@@ -2644,7 +2719,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="16.5" customHeight="1">
       <c r="B10" s="9">
         <v>1.7</v>
       </c>
@@ -2659,7 +2734,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" ht="16.5" customHeight="1">
       <c r="B11" s="9">
         <v>1.8</v>
       </c>
@@ -2672,7 +2747,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" ht="16.5" customHeight="1">
       <c r="B12" s="9">
         <v>1.9</v>
       </c>
@@ -2685,7 +2760,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" ht="16.5" customHeight="1">
       <c r="B13" s="13" t="s">
         <v>40</v>
       </c>
@@ -2698,7 +2773,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" ht="16.5" customHeight="1">
       <c r="B14" s="9">
         <v>1.1100000000000001</v>
       </c>
@@ -2711,7 +2786,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" ht="16.5" customHeight="1">
       <c r="B15" s="9">
         <v>1.1200000000000001</v>
       </c>
@@ -2724,7 +2799,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" ht="16.5" customHeight="1">
       <c r="B16" s="9">
         <v>1.1299999999999999</v>
       </c>
@@ -2737,7 +2812,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="16.5" customHeight="1">
       <c r="B17" s="9">
         <v>1.1399999999999999</v>
       </c>
@@ -2752,7 +2827,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="28" customHeight="1">
       <c r="B18" s="8">
         <v>2</v>
       </c>
@@ -2763,72 +2838,74 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="16.5" customHeight="1">
       <c r="B19" s="10">
         <v>2.1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="16.5" customHeight="1">
       <c r="B20" s="10">
         <v>2.2000000000000002</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="16.5" customHeight="1">
       <c r="B21" s="10">
         <v>2.2999999999999998</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" ht="16.5" customHeight="1">
       <c r="B22" s="10">
         <v>2.4</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" ht="16.5" customHeight="1">
       <c r="B23" s="10">
         <v>2.5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D23" s="1"/>
+        <v>160</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>228</v>
+      </c>
       <c r="E23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" ht="16.5" customHeight="1">
       <c r="B24" s="10">
         <v>2.6</v>
       </c>
@@ -2837,11 +2914,11 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" ht="16.5" customHeight="1">
       <c r="B25" s="10">
         <v>2.7</v>
       </c>
@@ -2856,109 +2933,113 @@
       </c>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" ht="16.5" customHeight="1">
       <c r="B26" s="8">
         <v>3</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" ht="16.5" customHeight="1">
       <c r="B27" s="10">
         <v>3.1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" ht="16.5" customHeight="1">
       <c r="B28" s="18">
         <v>3.2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" ht="16.5" customHeight="1">
       <c r="B29" s="10">
         <v>3.3</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" ht="16.5" customHeight="1">
       <c r="B30" s="18">
         <v>3.4</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" ht="16.5" customHeight="1">
       <c r="B31" s="10">
         <v>3.5</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" ht="16.5" customHeight="1">
       <c r="B32" s="18">
         <v>3.6</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="D32" s="1"/>
+        <v>151</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>229</v>
+      </c>
       <c r="E32" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" ht="16.5" customHeight="1">
       <c r="B33" s="10">
         <v>3.7</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D33" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="E33" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F33" s="11"/>
     </row>
-    <row r="34" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" ht="16.5" customHeight="1">
       <c r="B34" s="18">
         <v>3.8</v>
       </c>
@@ -2973,614 +3054,589 @@
       </c>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" ht="17" customHeight="1">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" ht="16.5" customHeight="1">
       <c r="B36" s="8">
         <v>4</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" ht="16.5" customHeight="1">
       <c r="B37" s="18">
         <v>4.0999999999999996</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="2"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" ht="16.5" customHeight="1">
       <c r="B38" s="18">
         <v>4.2</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="2"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" ht="16.5" customHeight="1">
       <c r="B39" s="18"/>
       <c r="C39" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="2"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" ht="16.5" customHeight="1">
       <c r="B40" s="18"/>
       <c r="C40" s="17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="2" t="s">
-        <v>143</v>
+        <v>213</v>
       </c>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" ht="16.5" customHeight="1">
       <c r="B41" s="18"/>
       <c r="C41" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="D41" s="3"/>
+        <v>226</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>233</v>
+      </c>
       <c r="E41" s="2" t="s">
-        <v>140</v>
+        <v>227</v>
       </c>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" ht="41" customHeight="1">
       <c r="B42" s="18"/>
-      <c r="C42" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D42" s="3"/>
+      <c r="C42" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>212</v>
+      </c>
       <c r="E42" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="2:6" ht="16.5" customHeight="1">
+      <c r="B43" s="18"/>
+      <c r="C43" s="16" t="s">
         <v>133</v>
-      </c>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="18">
-        <v>4.3</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="18"/>
-      <c r="C44" s="16" t="s">
-        <v>139</v>
+    <row r="44" spans="2:6" ht="16.5" customHeight="1">
+      <c r="B44" s="18">
+        <v>4.3</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="D44" s="3"/>
-      <c r="E44" s="2"/>
+      <c r="E44" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" ht="16.5" customHeight="1">
       <c r="B45" s="18"/>
-      <c r="C45" s="17" t="s">
-        <v>144</v>
+      <c r="C45" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="D45" s="3"/>
-      <c r="E45" s="2" t="s">
-        <v>143</v>
-      </c>
+      <c r="E45" s="2"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" ht="16.5" customHeight="1">
       <c r="B46" s="18"/>
       <c r="C46" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="2" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" ht="16.5" customHeight="1">
       <c r="B47" s="18"/>
-      <c r="C47" s="16" t="s">
-        <v>134</v>
+      <c r="C47" s="17" t="s">
+        <v>235</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="2" t="s">
-        <v>133</v>
+        <v>234</v>
       </c>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="18">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D48" s="3"/>
+    <row r="48" spans="2:6" ht="16.5" customHeight="1">
+      <c r="B48" s="18"/>
+      <c r="C48" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>215</v>
+      </c>
       <c r="E48" s="2" t="s">
-        <v>140</v>
+        <v>216</v>
       </c>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" ht="16.5" customHeight="1">
       <c r="B49" s="18"/>
       <c r="C49" s="16" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D49" s="3"/>
-      <c r="E49" s="2"/>
+      <c r="E49" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="18"/>
-      <c r="C50" s="17" t="s">
-        <v>144</v>
+    <row r="50" spans="2:6" ht="16.5" customHeight="1">
+      <c r="B50" s="18">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="2:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" ht="16.5" customHeight="1">
       <c r="B51" s="18"/>
-      <c r="C51" s="17" t="s">
-        <v>142</v>
+      <c r="C51" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="D51" s="3"/>
-      <c r="E51" s="2" t="s">
-        <v>140</v>
-      </c>
+      <c r="E51" s="2"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="2:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" ht="16.5" customHeight="1">
       <c r="B52" s="18"/>
-      <c r="C52" s="16" t="s">
-        <v>134</v>
+      <c r="C52" s="17" t="s">
+        <v>141</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="18">
-        <v>4.5</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>147</v>
+    <row r="53" spans="2:6" ht="16.5" customHeight="1">
+      <c r="B53" s="18"/>
+      <c r="C53" s="17" t="s">
+        <v>235</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="2" t="s">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="2:6" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" ht="28" customHeight="1">
       <c r="B54" s="18"/>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="2"/>
+      <c r="D54" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>216</v>
+      </c>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" ht="28" customHeight="1">
       <c r="B55" s="18"/>
-      <c r="C55" s="17" t="s">
-        <v>144</v>
+      <c r="C55" s="16" t="s">
+        <v>133</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="18"/>
-      <c r="C56" s="17" t="s">
+    <row r="56" spans="2:6" ht="16.5" customHeight="1">
+      <c r="B56" s="18">
+        <v>4.5</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>142</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" ht="31" customHeight="1">
       <c r="B57" s="18"/>
       <c r="C57" s="16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D57" s="3"/>
-      <c r="E57" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="E57" s="2"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="18">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>146</v>
+    <row r="58" spans="2:6" ht="16.5" customHeight="1">
+      <c r="B58" s="18"/>
+      <c r="C58" s="17" t="s">
+        <v>141</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="2" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" ht="16.5" customHeight="1">
       <c r="B59" s="18"/>
-      <c r="C59" s="16" t="s">
-        <v>139</v>
+      <c r="C59" s="17" t="s">
+        <v>235</v>
       </c>
       <c r="D59" s="3"/>
-      <c r="E59" s="2"/>
+      <c r="E59" s="2" t="s">
+        <v>234</v>
+      </c>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" ht="16.5" customHeight="1">
       <c r="B60" s="18"/>
       <c r="C60" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="D60" s="3"/>
+        <v>139</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>218</v>
+      </c>
       <c r="E60" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F60" s="2"/>
-    </row>
-    <row r="61" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="2:6" ht="16.5" customHeight="1">
       <c r="B61" s="18"/>
-      <c r="C61" s="17" t="s">
-        <v>142</v>
+      <c r="C61" s="16" t="s">
+        <v>133</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F61" s="2"/>
-    </row>
-    <row r="62" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="18"/>
-      <c r="C62" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D62" s="3"/>
+        <v>132</v>
+      </c>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="2:6" ht="16.5" customHeight="1">
+      <c r="B62" s="18">
+        <v>4.8</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62" s="2"/>
       <c r="E62" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F62" s="2"/>
-    </row>
-    <row r="63" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="18">
-        <v>4.7</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
+      </c>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="2:6" ht="16.5" customHeight="1">
+      <c r="B63" s="18"/>
+      <c r="C63" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="D63" t="s">
+        <v>232</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6" ht="16.5" customHeight="1">
       <c r="B64" s="18"/>
       <c r="C64" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D64" s="3"/>
-      <c r="E64" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6" ht="16.5" customHeight="1">
       <c r="B65" s="18"/>
-      <c r="C65" s="17" t="s">
-        <v>144</v>
+      <c r="C65" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="D65" s="3"/>
-      <c r="E65" s="2" t="s">
-        <v>143</v>
-      </c>
+      <c r="E65" s="2"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6" ht="16.5" customHeight="1">
       <c r="B66" s="18"/>
       <c r="C66" s="17" t="s">
-        <v>142</v>
+        <v>220</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F66" s="3"/>
-    </row>
-    <row r="67" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="16.5" customHeight="1">
       <c r="B67" s="18"/>
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D67" s="3"/>
-      <c r="E67" s="2" t="s">
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="2:6" ht="16.5" customHeight="1">
+      <c r="B68" s="18"/>
+      <c r="C68" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="F67" s="3"/>
-    </row>
-    <row r="68" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="18">
-        <v>4.8</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D68" s="2"/>
+      <c r="D68" s="3"/>
       <c r="E68" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="18"/>
-      <c r="C69" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D69" s="3"/>
-      <c r="E69" s="2"/>
+    <row r="69" spans="2:6" ht="16.5" customHeight="1">
+      <c r="B69" s="18">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="18"/>
-      <c r="C70" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="D70" s="3"/>
-      <c r="E70" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F70" s="3"/>
-    </row>
-    <row r="71" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="18"/>
-      <c r="C71" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="D71" s="3"/>
+    <row r="70" spans="2:6" ht="16.5" customHeight="1">
+      <c r="B70" s="21">
+        <v>5</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+    </row>
+    <row r="71" spans="2:6" ht="16.5" customHeight="1">
+      <c r="B71" s="22">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D71" s="2"/>
       <c r="E71" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="18"/>
-      <c r="C72" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D72" s="3"/>
+    <row r="72" spans="2:6" ht="16.5" customHeight="1">
+      <c r="B72" s="22">
+        <v>5.2</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="18">
-        <v>4.9000000000000004</v>
+    <row r="73" spans="2:6" ht="16.5" customHeight="1">
+      <c r="B73" s="22">
+        <v>5.3</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>0</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="D73" s="2"/>
       <c r="E73" s="2" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="21">
-        <v>5</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-    </row>
-    <row r="75" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:6" ht="16.5" customHeight="1">
+      <c r="B74" s="22">
+        <v>5.4</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="2:6" ht="16.5" customHeight="1">
       <c r="B75" s="22">
-        <v>5.0999999999999996</v>
+        <v>5.5</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:6" ht="16.5" customHeight="1">
       <c r="B76" s="22">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D76" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="E76" s="2" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="22">
-        <v>5.3</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F77" s="3"/>
-    </row>
-    <row r="78" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:6" ht="16.5" customHeight="1">
+      <c r="B77" s="21">
+        <v>6</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+    </row>
+    <row r="78" spans="2:6" ht="16.5" customHeight="1">
       <c r="B78" s="22">
-        <v>5.4</v>
+        <v>6.1</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6" ht="16.5" customHeight="1">
       <c r="B79" s="22">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6" ht="16.5" customHeight="1">
       <c r="B80" s="22">
-        <v>5.5</v>
-      </c>
-      <c r="C80" s="2" t="s">
+        <v>6.3</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="2:6" ht="16.5" customHeight="1">
+      <c r="B81" s="22">
+        <v>6.4</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="2:6" ht="16.5" customHeight="1">
+      <c r="B82" s="22">
+        <v>6.5</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E82" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F80" s="3"/>
-    </row>
-    <row r="81" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="21">
-        <v>6</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-    </row>
-    <row r="82" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="22">
-        <v>6.1</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="22">
-        <v>6.2</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2" t="s">
-        <v>118</v>
-      </c>
+    <row r="83" spans="2:6" ht="16.5" customHeight="1">
+      <c r="B83" s="20"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="22">
-        <v>6.3</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F84" s="3"/>
-    </row>
-    <row r="85" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="22">
-        <v>6.4</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F85" s="3"/>
-    </row>
-    <row r="86" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="22">
-        <v>6.5</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" s="3"/>
-    </row>
-    <row r="87" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="20"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-    </row>
-    <row r="88" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="23"/>
+    <row r="84" spans="2:6" ht="16.5" customHeight="1">
+      <c r="B84" s="23"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D32" r:id="rId1" xr:uid="{3DF5F366-A186-49F2-A5C7-3A7D478FE5A4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Bao Cao/Testcase/WebTuyenDungTest cases.xlsx
+++ b/Bao Cao/Testcase/WebTuyenDungTest cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyipd\OneDrive\Documents\LAP TRINH HUONG DOI TUONG\KT_LTHDT_Recruitment\Bao Cao\Testcase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\Recruitment\Recruitment\Bao Cao\Testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3159C1-99BB-4B7F-81E0-8B03F68B44B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECD37E9-A3D6-4279-9A42-D14BA37863E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KiemDuyet" sheetId="20" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="255">
   <si>
     <t>Thiết kế</t>
   </si>
@@ -735,13 +735,67 @@
   </si>
   <si>
     <t>Hồ sơ chưa hoàn thiện! Vui lòng hoàn thiện hồ sơ trước</t>
+  </si>
+  <si>
+    <t>2.3.1</t>
+  </si>
+  <si>
+    <t>2.3.2</t>
+  </si>
+  <si>
+    <t>Cập nhật tên công ty trên 30 ký tự</t>
+  </si>
+  <si>
+    <t>(Đề tài “Xây dựng ứng dụng website hỗ trợ tuyển dụng nhân sự” là một đề tài không phải là mới, hiện tại trên thị trường cũng có rất nhiều các website của các Công ty )</t>
+  </si>
+  <si>
+    <t>2.3.3</t>
+  </si>
+  <si>
+    <t>Cập nhật mô tả lợi thế trên 50 ký tự</t>
+  </si>
+  <si>
+    <t>Không nhập được  hơn 30 ký tự</t>
+  </si>
+  <si>
+    <t>Không nhập được hơn 50 ký tự</t>
+  </si>
+  <si>
+    <t>5.2.1</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo Vui lòng nhập tên vị trí công việc từ 1-50 ký tự.</t>
+  </si>
+  <si>
+    <t>Đăng tuyển 1 vị trí mới cho công ty. Nhập tiêu đề vị trí công việc trên 50 ký tự</t>
+  </si>
+  <si>
+    <t>Đăng tuyển 1 vị trí mới cho công ty. Nhập bộ phận trên 20 ký tự</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo Vui lòng nhập tên phòng ban dưới 20 ký tự</t>
+  </si>
+  <si>
+    <t>5.2.2</t>
+  </si>
+  <si>
+    <t>5.2.3</t>
+  </si>
+  <si>
+    <t>Đăng tuyển 1 vị trí mới cho công ty. Nhập Lương của công việc</t>
+  </si>
+  <si>
+    <t>(aa,-10,40.3)</t>
+  </si>
+  <si>
+    <t>Không nhập được vào ô dữ liệu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -842,7 +896,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -923,6 +977,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1342,16 +1399,16 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.54296875" customWidth="1"/>
-    <col min="4" max="4" width="30.6328125" customWidth="1"/>
-    <col min="5" max="5" width="35.453125" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="35.44140625" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="16.5" customHeight="1">
+    <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1368,7 +1425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="16.5" customHeight="1">
+    <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -1379,7 +1436,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="2:6" ht="16.5" customHeight="1">
+    <row r="4" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9">
         <v>1.1000000000000001</v>
       </c>
@@ -1392,7 +1449,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="2:6" ht="33" customHeight="1">
+    <row r="5" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
         <v>1.2</v>
       </c>
@@ -1407,7 +1464,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="2:6" ht="16.5" customHeight="1">
+    <row r="6" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9">
         <v>1.3</v>
       </c>
@@ -1422,7 +1479,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="2:6" ht="16.5" customHeight="1">
+    <row r="7" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
         <v>1.4</v>
       </c>
@@ -1437,7 +1494,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="2:6" ht="16.5" customHeight="1">
+    <row r="8" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
         <v>2</v>
       </c>
@@ -1448,7 +1505,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="2:6" ht="16.5" customHeight="1">
+    <row r="9" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10">
         <v>2.1</v>
       </c>
@@ -1461,7 +1518,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="2:6" ht="16.5" customHeight="1">
+    <row r="10" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10">
         <v>2.2000000000000002</v>
       </c>
@@ -1474,7 +1531,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="2:6" ht="16.5" customHeight="1">
+    <row r="11" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10">
         <v>2.2999999999999998</v>
       </c>
@@ -1489,7 +1546,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="2:6" ht="16.5" customHeight="1">
+    <row r="12" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10">
         <v>2.4</v>
       </c>
@@ -1504,7 +1561,7 @@
       </c>
       <c r="F12" s="11"/>
     </row>
-    <row r="13" spans="2:6" ht="16.5" customHeight="1">
+    <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="10">
         <v>2.5</v>
       </c>
@@ -1519,7 +1576,7 @@
       </c>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="2:6" ht="33" customHeight="1">
+    <row r="14" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10">
         <v>2.6</v>
       </c>
@@ -1534,7 +1591,7 @@
       </c>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="2:6" ht="16.5" customHeight="1">
+    <row r="15" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10">
         <v>2.8</v>
       </c>
@@ -1549,7 +1606,7 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="2:6" ht="16.5" customHeight="1">
+    <row r="16" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
         <v>3</v>
       </c>
@@ -1560,7 +1617,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="2:6" ht="16.5" customHeight="1">
+    <row r="17" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <v>3.1</v>
       </c>
@@ -1573,7 +1630,7 @@
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" ht="17.25" customHeight="1">
+    <row r="18" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <v>3.2</v>
       </c>
@@ -1586,7 +1643,7 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" ht="16.5" customHeight="1">
+    <row r="19" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="10">
         <v>3.3</v>
       </c>
@@ -1601,7 +1658,7 @@
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" ht="16.5" customHeight="1">
+    <row r="20" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8">
         <v>4</v>
       </c>
@@ -1612,7 +1669,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="2:6" ht="33.75" customHeight="1">
+    <row r="21" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <v>4.0999999999999996</v>
       </c>
@@ -1627,7 +1684,7 @@
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" ht="33" customHeight="1">
+    <row r="22" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <v>4.2</v>
       </c>
@@ -1642,7 +1699,7 @@
       </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" ht="33.75" customHeight="1">
+    <row r="23" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <v>4.3</v>
       </c>
@@ -1655,7 +1712,7 @@
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" ht="33" customHeight="1">
+    <row r="24" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
         <v>4.4000000000000004</v>
       </c>
@@ -1670,7 +1727,7 @@
       </c>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" ht="16.5" customHeight="1">
+    <row r="25" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
         <v>4.5</v>
       </c>
@@ -1685,7 +1742,7 @@
       </c>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" ht="16.5" customHeight="1">
+    <row r="26" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="8">
         <v>5</v>
       </c>
@@ -1696,7 +1753,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="2:6" ht="33.75" customHeight="1">
+    <row r="27" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18">
         <v>5.0999999999999996</v>
       </c>
@@ -1711,7 +1768,7 @@
       </c>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" ht="33" customHeight="1">
+    <row r="28" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18">
         <v>5.2</v>
       </c>
@@ -1726,7 +1783,7 @@
       </c>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" ht="33.75" customHeight="1">
+    <row r="29" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18">
         <v>5.3</v>
       </c>
@@ -1739,7 +1796,7 @@
       </c>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" ht="33" customHeight="1">
+    <row r="30" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18">
         <v>5.4</v>
       </c>
@@ -1754,7 +1811,7 @@
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" ht="33.75" customHeight="1">
+    <row r="31" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18">
         <v>5.5</v>
       </c>
@@ -1767,7 +1824,7 @@
       </c>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" ht="33" customHeight="1">
+    <row r="32" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18">
         <v>5.6</v>
       </c>
@@ -1780,7 +1837,7 @@
       </c>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" ht="16.5" customHeight="1">
+    <row r="33" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10">
         <v>5.7</v>
       </c>
@@ -1803,22 +1860,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8E65F8-A029-42C5-9F5C-1B83DB9DFA87}">
-  <dimension ref="B2:F56"/>
+  <dimension ref="B2:F61"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="61.08984375" customWidth="1"/>
-    <col min="4" max="4" width="100.36328125" customWidth="1"/>
-    <col min="5" max="5" width="119.6328125" customWidth="1"/>
-    <col min="6" max="6" width="25.36328125" customWidth="1"/>
+    <col min="3" max="3" width="69.21875" customWidth="1"/>
+    <col min="4" max="4" width="100.33203125" customWidth="1"/>
+    <col min="5" max="5" width="119.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="13">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1835,7 +1892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="13">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -1846,7 +1903,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="9">
         <v>1.1000000000000001</v>
       </c>
@@ -1861,7 +1918,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
         <v>1.2</v>
       </c>
@@ -1876,7 +1933,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="9">
         <v>1.3</v>
       </c>
@@ -1891,7 +1948,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
         <v>1.4</v>
       </c>
@@ -1906,7 +1963,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
         <v>1.5</v>
       </c>
@@ -1921,7 +1978,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="2:6" ht="13">
+    <row r="9" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B9" s="9">
         <v>1.6</v>
       </c>
@@ -1936,7 +1993,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="9">
         <v>1.7</v>
       </c>
@@ -1951,7 +2008,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="9">
         <v>1.8</v>
       </c>
@@ -1964,7 +2021,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>1.9</v>
       </c>
@@ -1977,7 +2034,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>40</v>
       </c>
@@ -1990,7 +2047,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="9">
         <v>1.1100000000000001</v>
       </c>
@@ -2003,7 +2060,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="9">
         <v>1.1200000000000001</v>
       </c>
@@ -2016,7 +2073,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="9">
         <v>1.1299999999999999</v>
       </c>
@@ -2029,7 +2086,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="9">
         <v>1.1399999999999999</v>
       </c>
@@ -2044,7 +2101,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" ht="13">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="8">
         <v>2</v>
       </c>
@@ -2055,7 +2112,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="10">
         <v>2.1</v>
       </c>
@@ -2070,7 +2127,7 @@
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="10">
         <v>2.2000000000000002</v>
       </c>
@@ -2085,501 +2142,574 @@
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="10">
-        <v>2.2999999999999998</v>
+    <row r="21" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="11">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="10">
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="10">
         <v>2.4</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="10">
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="10">
         <v>2.5</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="10">
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="10">
         <v>2.6</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="10">
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="10">
         <v>2.7</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="10">
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="10">
         <v>2.8</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="10">
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="10">
         <v>2.9</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="14" t="s">
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="10">
-        <v>2.11</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="10">
-        <v>2.12</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="10">
+        <v>2.11</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="10">
+        <v>2.12</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="10">
+      <c r="F32" s="11"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="10">
         <v>2.13</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="10">
-        <v>2.14</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F32" s="11"/>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="10">
-        <v>2.15</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F33" s="11"/>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="10">
+        <v>2.14</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="11"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="10">
+        <v>2.15</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="10">
         <v>2.16</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="11"/>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="10">
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="2:6" ht="13">
-      <c r="B36" s="8">
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="8">
         <v>3</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="3">
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="3">
         <v>3.1</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3" t="s">
+      <c r="D39" s="3"/>
+      <c r="E39" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="3">
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="3">
         <v>3.2</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="2:6" ht="13">
-      <c r="B39" s="8">
-        <v>4</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="2:6" ht="13">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="8">
+        <v>5</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="3">
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="3">
         <v>5.2</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="3">
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B46" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B47" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="3">
         <v>5.3</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="3" t="s">
+      <c r="D49" s="2"/>
+      <c r="E49" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="3">
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="3">
         <v>5.4</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="B47" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="3">
-        <v>5.7</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="3">
-        <v>5.8</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="B50" s="3">
-        <v>5.9</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="2:6">
-      <c r="B51" s="15" t="s">
-        <v>103</v>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="3">
+        <v>5.5</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="2:6">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="3">
-        <v>5.1100000000000003</v>
+        <v>5.6</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D52" s="3"/>
+        <v>96</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="E52" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="2:6">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="3">
-        <v>5.12</v>
+        <v>5.7</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D53" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="E53" s="3" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="2:6">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="3">
-        <v>5.13</v>
+        <v>5.8</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D54" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="E54" s="3" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="2:6">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="3">
-        <v>5.14</v>
+        <v>5.9</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="3">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="3">
+        <v>5.12</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="3">
+        <v>5.13</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="3">
+        <v>5.14</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="2:6">
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2590,18 +2720,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2696C5-C04F-489F-9F49-96BB4D990DAD}">
   <dimension ref="B2:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="50.90625" customWidth="1"/>
+    <col min="4" max="4" width="50.88671875" customWidth="1"/>
     <col min="5" max="5" width="85" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="16.5" customHeight="1">
+    <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -2618,7 +2750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="16.5" customHeight="1">
+    <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -2629,7 +2761,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="2:6" ht="16.5" customHeight="1">
+    <row r="4" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9">
         <v>1.1000000000000001</v>
       </c>
@@ -2644,7 +2776,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="2:6" ht="16.5" customHeight="1">
+    <row r="5" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
         <v>1.2</v>
       </c>
@@ -2659,7 +2791,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="2:6" ht="16.5" customHeight="1">
+    <row r="6" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9">
         <v>1.3</v>
       </c>
@@ -2674,7 +2806,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="2:6" ht="16.5" customHeight="1">
+    <row r="7" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
         <v>1.4</v>
       </c>
@@ -2689,7 +2821,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="2:6" ht="16.5" customHeight="1">
+    <row r="8" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
         <v>1.5</v>
       </c>
@@ -2704,7 +2836,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="2:6" ht="16.5" customHeight="1">
+    <row r="9" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9">
         <v>1.6</v>
       </c>
@@ -2719,7 +2851,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="2:6" ht="16.5" customHeight="1">
+    <row r="10" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9">
         <v>1.7</v>
       </c>
@@ -2734,7 +2866,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="2:6" ht="16.5" customHeight="1">
+    <row r="11" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9">
         <v>1.8</v>
       </c>
@@ -2747,7 +2879,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="2:6" ht="16.5" customHeight="1">
+    <row r="12" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>1.9</v>
       </c>
@@ -2760,7 +2892,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="2:6" ht="16.5" customHeight="1">
+    <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>40</v>
       </c>
@@ -2773,7 +2905,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="2:6" ht="16.5" customHeight="1">
+    <row r="14" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9">
         <v>1.1100000000000001</v>
       </c>
@@ -2786,7 +2918,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="2:6" ht="16.5" customHeight="1">
+    <row r="15" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9">
         <v>1.1200000000000001</v>
       </c>
@@ -2799,7 +2931,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="2:6" ht="16.5" customHeight="1">
+    <row r="16" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9">
         <v>1.1299999999999999</v>
       </c>
@@ -2812,7 +2944,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" ht="16.5" customHeight="1">
+    <row r="17" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9">
         <v>1.1399999999999999</v>
       </c>
@@ -2827,7 +2959,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" ht="28" customHeight="1">
+    <row r="18" spans="2:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8">
         <v>2</v>
       </c>
@@ -2838,7 +2970,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="2:6" ht="16.5" customHeight="1">
+    <row r="19" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="10">
         <v>2.1</v>
       </c>
@@ -2851,7 +2983,7 @@
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" ht="16.5" customHeight="1">
+    <row r="20" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="10">
         <v>2.2000000000000002</v>
       </c>
@@ -2864,7 +2996,7 @@
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" ht="16.5" customHeight="1">
+    <row r="21" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10">
         <v>2.2999999999999998</v>
       </c>
@@ -2877,7 +3009,7 @@
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" ht="16.5" customHeight="1">
+    <row r="22" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="10">
         <v>2.4</v>
       </c>
@@ -2890,7 +3022,7 @@
       </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" ht="16.5" customHeight="1">
+    <row r="23" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="10">
         <v>2.5</v>
       </c>
@@ -2905,7 +3037,7 @@
       </c>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="2:6" ht="16.5" customHeight="1">
+    <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="10">
         <v>2.6</v>
       </c>
@@ -2918,7 +3050,7 @@
       </c>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" ht="16.5" customHeight="1">
+    <row r="25" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
         <v>2.7</v>
       </c>
@@ -2933,7 +3065,7 @@
       </c>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" ht="16.5" customHeight="1">
+    <row r="26" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="8">
         <v>3</v>
       </c>
@@ -2944,7 +3076,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="2:6" ht="16.5" customHeight="1">
+    <row r="27" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="10">
         <v>3.1</v>
       </c>
@@ -2957,7 +3089,7 @@
       </c>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" ht="16.5" customHeight="1">
+    <row r="28" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18">
         <v>3.2</v>
       </c>
@@ -2970,7 +3102,7 @@
       </c>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" ht="16.5" customHeight="1">
+    <row r="29" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="10">
         <v>3.3</v>
       </c>
@@ -2983,7 +3115,7 @@
       </c>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" ht="16.5" customHeight="1">
+    <row r="30" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18">
         <v>3.4</v>
       </c>
@@ -2996,7 +3128,7 @@
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" ht="16.5" customHeight="1">
+    <row r="31" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="10">
         <v>3.5</v>
       </c>
@@ -3009,7 +3141,7 @@
       </c>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" ht="16.5" customHeight="1">
+    <row r="32" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18">
         <v>3.6</v>
       </c>
@@ -3024,7 +3156,7 @@
       </c>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" ht="16.5" customHeight="1">
+    <row r="33" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10">
         <v>3.7</v>
       </c>
@@ -3039,7 +3171,7 @@
       </c>
       <c r="F33" s="11"/>
     </row>
-    <row r="34" spans="2:6" ht="16.5" customHeight="1">
+    <row r="34" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18">
         <v>3.8</v>
       </c>
@@ -3054,14 +3186,14 @@
       </c>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" ht="17" customHeight="1">
+    <row r="35" spans="2:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" ht="16.5" customHeight="1">
+    <row r="36" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="8">
         <v>4</v>
       </c>
@@ -3072,7 +3204,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="2:6" ht="16.5" customHeight="1">
+    <row r="37" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18">
         <v>4.0999999999999996</v>
       </c>
@@ -3083,7 +3215,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6" ht="16.5" customHeight="1">
+    <row r="38" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18">
         <v>4.2</v>
       </c>
@@ -3094,7 +3226,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="2:6" ht="16.5" customHeight="1">
+    <row r="39" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18"/>
       <c r="C39" s="16" t="s">
         <v>136</v>
@@ -3103,7 +3235,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="2:6" ht="16.5" customHeight="1">
+    <row r="40" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18"/>
       <c r="C40" s="17" t="s">
         <v>141</v>
@@ -3114,7 +3246,7 @@
       </c>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="2:6" ht="16.5" customHeight="1">
+    <row r="41" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18"/>
       <c r="C41" s="17" t="s">
         <v>226</v>
@@ -3127,7 +3259,7 @@
       </c>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="2:6" ht="41" customHeight="1">
+    <row r="42" spans="2:6" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18"/>
       <c r="C42" s="17" t="s">
         <v>139</v>
@@ -3140,7 +3272,7 @@
       </c>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="2:6" ht="16.5" customHeight="1">
+    <row r="43" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18"/>
       <c r="C43" s="16" t="s">
         <v>133</v>
@@ -3151,7 +3283,7 @@
       </c>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="2:6" ht="16.5" customHeight="1">
+    <row r="44" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18">
         <v>4.3</v>
       </c>
@@ -3164,7 +3296,7 @@
       </c>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="2:6" ht="16.5" customHeight="1">
+    <row r="45" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="18"/>
       <c r="C45" s="16" t="s">
         <v>136</v>
@@ -3173,7 +3305,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="2:6" ht="16.5" customHeight="1">
+    <row r="46" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="18"/>
       <c r="C46" s="17" t="s">
         <v>141</v>
@@ -3184,7 +3316,7 @@
       </c>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="2:6" ht="16.5" customHeight="1">
+    <row r="47" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="18"/>
       <c r="C47" s="17" t="s">
         <v>235</v>
@@ -3195,7 +3327,7 @@
       </c>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="2:6" ht="16.5" customHeight="1">
+    <row r="48" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="18"/>
       <c r="C48" s="17" t="s">
         <v>139</v>
@@ -3208,7 +3340,7 @@
       </c>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="2:6" ht="16.5" customHeight="1">
+    <row r="49" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="18"/>
       <c r="C49" s="16" t="s">
         <v>133</v>
@@ -3219,7 +3351,7 @@
       </c>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="2:6" ht="16.5" customHeight="1">
+    <row r="50" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="18">
         <v>4.4000000000000004</v>
       </c>
@@ -3232,7 +3364,7 @@
       </c>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="2:6" ht="16.5" customHeight="1">
+    <row r="51" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="18"/>
       <c r="C51" s="16" t="s">
         <v>136</v>
@@ -3241,7 +3373,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="2:6" ht="16.5" customHeight="1">
+    <row r="52" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="18"/>
       <c r="C52" s="17" t="s">
         <v>141</v>
@@ -3252,7 +3384,7 @@
       </c>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="2:6" ht="16.5" customHeight="1">
+    <row r="53" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="18"/>
       <c r="C53" s="17" t="s">
         <v>235</v>
@@ -3263,7 +3395,7 @@
       </c>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="2:6" ht="28" customHeight="1">
+    <row r="54" spans="2:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="18"/>
       <c r="C54" s="17" t="s">
         <v>139</v>
@@ -3276,7 +3408,7 @@
       </c>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="2:6" ht="28" customHeight="1">
+    <row r="55" spans="2:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="18"/>
       <c r="C55" s="16" t="s">
         <v>133</v>
@@ -3287,7 +3419,7 @@
       </c>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="2:6" ht="16.5" customHeight="1">
+    <row r="56" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="18">
         <v>4.5</v>
       </c>
@@ -3300,7 +3432,7 @@
       </c>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="2:6" ht="31" customHeight="1">
+    <row r="57" spans="2:6" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="18"/>
       <c r="C57" s="16" t="s">
         <v>136</v>
@@ -3309,7 +3441,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="2:6" ht="16.5" customHeight="1">
+    <row r="58" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="18"/>
       <c r="C58" s="17" t="s">
         <v>141</v>
@@ -3320,7 +3452,7 @@
       </c>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="2:6" ht="16.5" customHeight="1">
+    <row r="59" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="18"/>
       <c r="C59" s="17" t="s">
         <v>235</v>
@@ -3331,7 +3463,7 @@
       </c>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="2:6" ht="16.5" customHeight="1">
+    <row r="60" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="18"/>
       <c r="C60" s="17" t="s">
         <v>139</v>
@@ -3344,7 +3476,7 @@
       </c>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="2:6" ht="16.5" customHeight="1">
+    <row r="61" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="18"/>
       <c r="C61" s="16" t="s">
         <v>133</v>
@@ -3355,7 +3487,7 @@
       </c>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="2:6" ht="16.5" customHeight="1">
+    <row r="62" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="18">
         <v>4.8</v>
       </c>
@@ -3368,7 +3500,7 @@
       </c>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="2:6" ht="16.5" customHeight="1">
+    <row r="63" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="18"/>
       <c r="C63" s="16" t="s">
         <v>222</v>
@@ -3381,7 +3513,7 @@
       </c>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="2:6" ht="16.5" customHeight="1">
+    <row r="64" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="18"/>
       <c r="C64" s="16" t="s">
         <v>223</v>
@@ -3394,7 +3526,7 @@
       </c>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="2:6" ht="16.5" customHeight="1">
+    <row r="65" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="18"/>
       <c r="C65" s="16" t="s">
         <v>136</v>
@@ -3403,7 +3535,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="2:6" ht="16.5" customHeight="1">
+    <row r="66" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="18"/>
       <c r="C66" s="17" t="s">
         <v>220</v>
@@ -3413,7 +3545,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="67" spans="2:6" ht="16.5" customHeight="1">
+    <row r="67" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="18"/>
       <c r="C67" s="17" t="s">
         <v>219</v>
@@ -3426,7 +3558,7 @@
       </c>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="2:6" ht="16.5" customHeight="1">
+    <row r="68" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="18"/>
       <c r="C68" s="16" t="s">
         <v>133</v>
@@ -3437,7 +3569,7 @@
       </c>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="2:6" ht="16.5" customHeight="1">
+    <row r="69" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="18">
         <v>4.9000000000000004</v>
       </c>
@@ -3452,7 +3584,7 @@
       </c>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="2:6" ht="16.5" customHeight="1">
+    <row r="70" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="21">
         <v>5</v>
       </c>
@@ -3463,7 +3595,7 @@
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="2:6" ht="16.5" customHeight="1">
+    <row r="71" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="22">
         <v>5.0999999999999996</v>
       </c>
@@ -3476,7 +3608,7 @@
       </c>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="2:6" ht="16.5" customHeight="1">
+    <row r="72" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="22">
         <v>5.2</v>
       </c>
@@ -3489,7 +3621,7 @@
       </c>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="2:6" ht="16.5" customHeight="1">
+    <row r="73" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="22">
         <v>5.3</v>
       </c>
@@ -3502,7 +3634,7 @@
       </c>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="2:6" ht="16.5" customHeight="1">
+    <row r="74" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="22">
         <v>5.4</v>
       </c>
@@ -3514,7 +3646,7 @@
       </c>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="2:6" ht="16.5" customHeight="1">
+    <row r="75" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="22">
         <v>5.5</v>
       </c>
@@ -3527,7 +3659,7 @@
       </c>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="2:6" ht="16.5" customHeight="1">
+    <row r="76" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="22">
         <v>5.5</v>
       </c>
@@ -3542,7 +3674,7 @@
       </c>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="2:6" ht="16.5" customHeight="1">
+    <row r="77" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="21">
         <v>6</v>
       </c>
@@ -3553,7 +3685,7 @@
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
     </row>
-    <row r="78" spans="2:6" ht="16.5" customHeight="1">
+    <row r="78" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="22">
         <v>6.1</v>
       </c>
@@ -3568,7 +3700,7 @@
       </c>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="2:6" ht="16.5" customHeight="1">
+    <row r="79" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="22">
         <v>6.2</v>
       </c>
@@ -3581,7 +3713,7 @@
       </c>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="2:6" ht="16.5" customHeight="1">
+    <row r="80" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="22">
         <v>6.3</v>
       </c>
@@ -3594,7 +3726,7 @@
       </c>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="2:6" ht="16.5" customHeight="1">
+    <row r="81" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="22">
         <v>6.4</v>
       </c>
@@ -3607,7 +3739,7 @@
       </c>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="2:6" ht="16.5" customHeight="1">
+    <row r="82" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="22">
         <v>6.5</v>
       </c>
@@ -3622,14 +3754,14 @@
       </c>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="2:6" ht="16.5" customHeight="1">
+    <row r="83" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="20"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="2:6" ht="16.5" customHeight="1">
+    <row r="84" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="23"/>
     </row>
   </sheetData>

--- a/Bao Cao/Testcase/WebTuyenDungTest cases.xlsx
+++ b/Bao Cao/Testcase/WebTuyenDungTest cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\Recruitment\Recruitment\Bao Cao\Testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECD37E9-A3D6-4279-9A42-D14BA37863E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EF30AB-CE08-400C-BB36-11310A0D48C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KiemDuyet" sheetId="20" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="270">
   <si>
     <t>Thiết kế</t>
   </si>
@@ -502,12 +502,6 @@
   </si>
   <si>
     <t>Chuyển về trang web sau khi đăng nhập thành công</t>
-  </si>
-  <si>
-    <t>Sai username, password</t>
-  </si>
-  <si>
-    <t>Thông báo đã nhập sai capcha</t>
   </si>
   <si>
     <t>Nhập sai capcha</t>
@@ -789,13 +783,102 @@
   </si>
   <si>
     <t>Không nhập được vào ô dữ liệu</t>
+  </si>
+  <si>
+    <t>Chưa gửi mã xác minh email</t>
+  </si>
+  <si>
+    <t>Hiện thông báo yêu cầu gửi mã xác minh</t>
+  </si>
+  <si>
+    <t>Thông tin công ty chưa xác minh</t>
+  </si>
+  <si>
+    <t>Yêu cầu đợi xác minh thì mới được tạo bài đăng tuyển và chuyển sang trang thông tin công ty</t>
+  </si>
+  <si>
+    <t>1.5.1</t>
+  </si>
+  <si>
+    <t>Tìm kiếm bằng nhập vào ô dữ liệu</t>
+  </si>
+  <si>
+    <t>Hiện ra thông báo Tìm kiếm không được để trống</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(Chính Bảo, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>justb9h@gmail.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF081C36"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, nam, người nộp đơn, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0972828888</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF081C36"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 2023-10-17 15:44:52)</t>
+    </r>
+  </si>
+  <si>
+    <t>(Công ty Thịnh Phát, Java, Ngôn ngữ, part, 97 Man Thiện, Đại học, 3tr-5tr, ngoại tuyến, 2023-10-24 21:48:07)</t>
+  </si>
+  <si>
+    <t>(Công ty Thịnh Phát, Hồ Chí Minh, Bất động sản, 15-20 người, niêm yết, Thịnh Phát, đã xác minh, 2023-10-04 08:31:51)</t>
+  </si>
+  <si>
+    <t>Sai email, password</t>
+  </si>
+  <si>
+    <t>Hiển thông báo(Địa chỉ hộp thư không thể trống) và yêu cầu nhập(Vui lòng nhập địa chỉ email)</t>
+  </si>
+  <si>
+    <t>Hiển thông báo(Mật khẩu không thể trống!) và yêu cầu nhập(Xin vui lòng nhập mật khẩu)</t>
+  </si>
+  <si>
+    <t>Hiển thông báo(Mã xác minh phải được điền!) và yêu cầu nhập(Nhập mã xác nhận)</t>
+  </si>
+  <si>
+    <t>Thông báo đã nhập sai capcha(Đăng nhập thất bại，Mã xác thực không chính xác!!!)</t>
+  </si>
+  <si>
+    <t>Hiển thông báo(Mã xác minh phải được điền！) và yêu cầu nhập(nhập mã xác nhận)</t>
+  </si>
+  <si>
+    <t>Hiển thông báo(tên nên được điền) và yêu cầu nhập(hãy nhập tên)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -842,6 +925,18 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF081C36"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -896,7 +991,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -980,6 +1075,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1395,8 +1493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4905D9-9A2F-4DE5-8AFC-9247859EFDF4}">
   <dimension ref="B2:F33"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1430,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -1445,7 +1543,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -1457,7 +1555,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>10</v>
@@ -1472,10 +1570,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -1499,7 +1597,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -1510,11 +1608,11 @@
         <v>2.1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -1523,11 +1621,11 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -1536,13 +1634,13 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -1551,13 +1649,13 @@
         <v>2.4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F12" s="11"/>
     </row>
@@ -1566,13 +1664,13 @@
         <v>2.5</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F13" s="11"/>
     </row>
@@ -1581,13 +1679,13 @@
         <v>2.6</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F14" s="11"/>
     </row>
@@ -1611,7 +1709,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -1622,24 +1720,26 @@
         <v>3.1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <v>3.2</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D18" s="3"/>
+        <v>186</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>260</v>
+      </c>
       <c r="E18" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F18" s="3"/>
     </row>
@@ -1663,7 +1763,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -1674,13 +1774,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F21" s="3"/>
     </row>
@@ -1689,13 +1789,13 @@
         <v>4.2</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F22" s="3"/>
     </row>
@@ -1704,26 +1804,26 @@
         <v>4.3</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
         <v>4.4000000000000004</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>182</v>
+        <v>169</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>261</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F24" s="3"/>
     </row>
@@ -1747,7 +1847,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -1758,13 +1858,13 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F27" s="3"/>
     </row>
@@ -1773,13 +1873,13 @@
         <v>5.2</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F28" s="3"/>
     </row>
@@ -1788,11 +1888,11 @@
         <v>5.3</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F29" s="3"/>
     </row>
@@ -1801,13 +1901,13 @@
         <v>5.4</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F30" s="3"/>
     </row>
@@ -1816,24 +1916,26 @@
         <v>5.5</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18">
         <v>5.6</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="D32" s="25"/>
+        <v>164</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>262</v>
+      </c>
       <c r="E32" s="24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F32" s="3"/>
     </row>
@@ -1860,10 +1962,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8E65F8-A029-42C5-9F5C-1B83DB9DFA87}">
-  <dimension ref="B2:F61"/>
+  <dimension ref="B2:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1978,372 +2080,372 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B9" s="9">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B10" s="9">
         <v>1.6</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="9">
-        <v>1.7</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="9">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
-        <v>40</v>
+      <c r="B13" s="9">
+        <v>1.9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="9">
-        <v>1.1100000000000001</v>
+      <c r="B14" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="9">
-        <v>1.1200000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="9">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="9">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="9">
         <v>1.1399999999999999</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="8">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="8">
         <v>2</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="10">
-        <v>2.1</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="3"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="E22" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="10">
-        <v>2.4</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F24" s="11"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F25" s="11"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="10">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F26" s="11"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="10">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>7</v>
+        <v>59</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F27" s="11"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="10">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>63</v>
+      <c r="D28" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F28" s="11"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="10">
         <v>2.9</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="14" t="s">
-        <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="10">
-        <v>2.11</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="F31" s="11"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="10">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F32" s="11"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="10">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F33" s="11"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="10">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>74</v>
@@ -2352,13 +2454,13 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="10">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>74</v>
@@ -2367,64 +2469,66 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="10">
-        <v>2.16</v>
+        <v>2.15</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F36" s="11"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="10">
+        <v>2.16</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="8">
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="8">
         <v>3</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F39" s="3"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>82</v>
+        <v>3.1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
@@ -2433,178 +2537,176 @@
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="8">
+      <c r="B41" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="8">
         <v>4</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="3">
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3" t="s">
+      <c r="D43" s="3"/>
+      <c r="E43" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="8">
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="8">
         <v>5</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="3">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B46" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B47" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B48" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="33" t="s">
+      <c r="D49" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="3">
-        <v>5.3</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D50" s="3"/>
+        <v>92</v>
+      </c>
+      <c r="D50" s="2"/>
       <c r="E50" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F51" s="3"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="3">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>97</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F52" s="3"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="3">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>98</v>
@@ -2613,13 +2715,13 @@
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="3">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>98</v>
@@ -2628,23 +2730,25 @@
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="3">
         <v>5.9</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
@@ -2653,11 +2757,11 @@
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="3">
-        <v>5.1100000000000003</v>
+      <c r="B57" s="15" t="s">
+        <v>103</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
@@ -2667,49 +2771,68 @@
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="3">
-        <v>5.12</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F58" s="3"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="3">
-        <v>5.13</v>
+        <v>5.12</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F59" s="3"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="3">
-        <v>5.14</v>
+        <v>5.13</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="3">
+        <v>5.14</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F60" s="3"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
       <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="3">
+        <v>5.15</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F62" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2718,10 +2841,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2696C5-C04F-489F-9F49-96BB4D990DAD}">
-  <dimension ref="B2:F84"/>
+  <dimension ref="B2:F85"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2755,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -2979,7 +3102,7 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="F19" s="3"/>
     </row>
@@ -2992,7 +3115,7 @@
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="2" t="s">
-        <v>152</v>
+        <v>265</v>
       </c>
       <c r="F20" s="3"/>
     </row>
@@ -3001,11 +3124,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="2" t="s">
-        <v>152</v>
+        <v>266</v>
       </c>
       <c r="F21" s="3"/>
     </row>
@@ -3014,11 +3137,11 @@
         <v>2.4</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="2" t="s">
-        <v>161</v>
+        <v>267</v>
       </c>
       <c r="F22" s="3"/>
     </row>
@@ -3027,10 +3150,10 @@
         <v>2.5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>160</v>
+        <v>263</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>10</v>
@@ -3085,7 +3208,7 @@
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="2" t="s">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="F27" s="3"/>
     </row>
@@ -3098,7 +3221,7 @@
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="2" t="s">
-        <v>152</v>
+        <v>265</v>
       </c>
       <c r="F28" s="3"/>
     </row>
@@ -3110,8 +3233,8 @@
         <v>155</v>
       </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="2" t="s">
-        <v>152</v>
+      <c r="E29" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="F29" s="3"/>
     </row>
@@ -3124,112 +3247,114 @@
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="2" t="s">
-        <v>152</v>
+        <v>268</v>
       </c>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="10">
-        <v>3.5</v>
-      </c>
+      <c r="B31" s="18"/>
       <c r="C31" s="2" t="s">
-        <v>153</v>
+        <v>253</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="18">
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="18">
         <v>3.6</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C33" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="D32" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="D33" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="10">
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="10">
         <v>3.7</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="D34" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F33" s="11"/>
-    </row>
-    <row r="34" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="18">
+      <c r="F34" s="11"/>
+    </row>
+    <row r="35" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="18">
         <v>3.8</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="2:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="8">
+    <row r="36" spans="2:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="8">
         <v>4</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="18">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="3"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="2"/>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="18"/>
-      <c r="C39" s="16" t="s">
-        <v>136</v>
+      <c r="B39" s="18">
+        <v>4.2</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="2"/>
@@ -3237,425 +3362,421 @@
     </row>
     <row r="40" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18"/>
-      <c r="C40" s="17" t="s">
-        <v>141</v>
+      <c r="C40" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="D40" s="3"/>
-      <c r="E40" s="2" t="s">
-        <v>213</v>
-      </c>
+      <c r="E40" s="2"/>
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18"/>
       <c r="C41" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>233</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="D41" s="3"/>
       <c r="E41" s="2" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="2:6" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18"/>
       <c r="C42" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="2:6" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="18"/>
+      <c r="C43" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="D42" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="18"/>
-      <c r="C43" s="16" t="s">
+      <c r="D43" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="18"/>
+      <c r="C44" s="16" t="s">
         <v>133</v>
-      </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="18">
-        <v>4.3</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="18">
+        <v>4.3</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="18"/>
-      <c r="C45" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="2"/>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="18"/>
-      <c r="C46" s="17" t="s">
-        <v>141</v>
+      <c r="C46" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="D46" s="3"/>
-      <c r="E46" s="2" t="s">
-        <v>214</v>
-      </c>
+      <c r="E46" s="2"/>
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="18"/>
       <c r="C47" s="17" t="s">
-        <v>235</v>
+        <v>141</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="2" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="18"/>
       <c r="C48" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>215</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="D48" s="3"/>
       <c r="E48" s="2" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="18"/>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="18"/>
+      <c r="C50" s="16" t="s">
         <v>133</v>
-      </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="18">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="18">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F50" s="3"/>
-    </row>
-    <row r="51" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="18"/>
-      <c r="C51" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="2"/>
       <c r="F51" s="3"/>
     </row>
     <row r="52" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="18"/>
-      <c r="C52" s="17" t="s">
-        <v>141</v>
+      <c r="C52" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="D52" s="3"/>
-      <c r="E52" s="2" t="s">
-        <v>140</v>
-      </c>
+      <c r="E52" s="2"/>
       <c r="F52" s="3"/>
     </row>
     <row r="53" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="18"/>
       <c r="C53" s="17" t="s">
-        <v>235</v>
+        <v>141</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="2" t="s">
-        <v>234</v>
+        <v>140</v>
       </c>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="2:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="18"/>
       <c r="C54" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>217</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="D54" s="3"/>
       <c r="E54" s="2" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="2:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="18"/>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="2:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="18"/>
+      <c r="C56" s="16" t="s">
         <v>133</v>
-      </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="18">
-        <v>4.5</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="18">
+        <v>4.5</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="2:6" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="18"/>
-      <c r="C57" s="16" t="s">
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="2:6" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="18"/>
+      <c r="C58" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="3"/>
-    </row>
-    <row r="58" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="18"/>
-      <c r="C58" s="17" t="s">
-        <v>141</v>
-      </c>
       <c r="D58" s="3"/>
-      <c r="E58" s="2" t="s">
-        <v>214</v>
-      </c>
+      <c r="E58" s="2"/>
       <c r="F58" s="3"/>
     </row>
     <row r="59" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="18"/>
       <c r="C59" s="17" t="s">
-        <v>235</v>
+        <v>141</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="2" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="F59" s="3"/>
     </row>
     <row r="60" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="18"/>
       <c r="C60" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>218</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="D60" s="3"/>
       <c r="E60" s="2" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="F60" s="3"/>
     </row>
     <row r="61" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="18"/>
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="18"/>
+      <c r="C62" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="D61" s="3"/>
-      <c r="E61" s="2" t="s">
+      <c r="D62" s="3"/>
+      <c r="E62" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F61" s="3"/>
-    </row>
-    <row r="62" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="18">
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="18">
         <v>4.8</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2" t="s">
+      <c r="D63" s="2"/>
+      <c r="E63" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="F62" s="3"/>
-    </row>
-    <row r="63" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="18"/>
-      <c r="C63" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="D63" t="s">
-        <v>232</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="18"/>
       <c r="C64" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
+      </c>
+      <c r="D64" t="s">
+        <v>230</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="F64" s="3"/>
     </row>
     <row r="65" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="18"/>
       <c r="C65" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>223</v>
+      </c>
       <c r="F65" s="3"/>
     </row>
     <row r="66" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="18"/>
-      <c r="C66" s="17" t="s">
-        <v>220</v>
+      <c r="C66" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="D66" s="3"/>
-      <c r="E66" s="2" t="s">
-        <v>135</v>
-      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="3"/>
     </row>
     <row r="67" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="18"/>
       <c r="C67" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>221</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="D67" s="3"/>
       <c r="E67" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F67" s="3"/>
+        <v>135</v>
+      </c>
     </row>
     <row r="68" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="18"/>
-      <c r="C68" s="16" t="s">
+      <c r="C68" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="18"/>
+      <c r="C69" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="2" t="s">
+      <c r="D69" s="3"/>
+      <c r="E69" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F68" s="3"/>
-    </row>
-    <row r="69" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="18">
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="18">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F69" s="3"/>
-    </row>
-    <row r="70" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="21">
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="21">
         <v>5</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C71" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-    </row>
-    <row r="71" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="22">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F71" s="3"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
     </row>
     <row r="72" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="22">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F72" s="3"/>
     </row>
     <row r="73" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="22">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F73" s="3"/>
     </row>
     <row r="74" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="22">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>124</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="D74" s="2"/>
       <c r="E74" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F74" s="3"/>
     </row>
     <row r="75" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="22">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D75" s="2"/>
+        <v>124</v>
+      </c>
       <c r="E75" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F75" s="3"/>
     </row>
@@ -3664,109 +3785,122 @@
         <v>5.5</v>
       </c>
       <c r="C76" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="22">
+        <v>5.5</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F76" s="3"/>
-    </row>
-    <row r="77" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="21">
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="21">
         <v>6</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-    </row>
-    <row r="78" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="22">
-        <v>6.1</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F78" s="3"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
     </row>
     <row r="79" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="22">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D79" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="E79" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F79" s="3"/>
     </row>
     <row r="80" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="22">
-        <v>6.3</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>116</v>
+        <v>6.2</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="D80" s="2"/>
-      <c r="E80" s="1" t="s">
-        <v>236</v>
+      <c r="E80" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="F80" s="3"/>
     </row>
     <row r="81" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="22">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D81" s="2"/>
-      <c r="E81" s="2" t="s">
-        <v>114</v>
+      <c r="E81" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="F81" s="3"/>
     </row>
     <row r="82" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="22">
+        <v>6.4</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="22">
         <v>6.5</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E83" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F82" s="3"/>
-    </row>
-    <row r="83" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="20"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
       <c r="F83" s="3"/>
     </row>
     <row r="84" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="23"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="23"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D32" r:id="rId1" xr:uid="{3DF5F366-A186-49F2-A5C7-3A7D478FE5A4}"/>
+    <hyperlink ref="D33" r:id="rId1" xr:uid="{3DF5F366-A186-49F2-A5C7-3A7D478FE5A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
